--- a/RealEstateHelper/firstStep/images/RealEstateSteps.xlsx
+++ b/RealEstateHelper/firstStep/images/RealEstateSteps.xlsx
@@ -60,13 +60,13 @@
     <t>Most of your home buying problems are behind you now and you're on your way to closing, also called settlement, the event that transfers ownership of the property to you.</t>
   </si>
   <si>
-    <t>Move in After it is done</t>
-  </si>
-  <si>
     <t>It can take a couple of days for everything to be settled. Once everything is settled, though, move in and start making it your home!</t>
   </si>
   <si>
     <t>Steps to Buying a Home</t>
+  </si>
+  <si>
+    <t>Move in After it is Done</t>
   </si>
 </sst>
 </file>
@@ -143,9 +143,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -154,6 +151,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +832,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -872,335 +872,350 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B21:K21"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="A7:K7"/>
@@ -1211,21 +1226,6 @@
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A1:K3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
